--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838CD9EB-FE2A-554D-BA89-C4742D4331D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C7B36-18B4-6245-A48D-5F9501383D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>xgboost</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>cross val - default (default scorer )</t>
+  </si>
+  <si>
+    <t>cross val - default (optimized scorer)</t>
+  </si>
+  <si>
+    <t>cross val - xgboos default values</t>
   </si>
 </sst>
 </file>
@@ -415,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,10 +518,85 @@
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1560</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1489</v>
+      </c>
+      <c r="G13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1489</v>
+      </c>
+      <c r="G15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>492</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C7B36-18B4-6245-A48D-5F9501383D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB524F-185F-AC4C-8C04-76435E5F450F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="no sampling" sheetId="1" r:id="rId1"/>
+    <sheet name="sampling" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>xgboost</t>
   </si>
@@ -57,13 +58,22 @@
     <t>default</t>
   </si>
   <si>
-    <t>cross val - default (default scorer )</t>
-  </si>
-  <si>
-    <t>cross val - default (optimized scorer)</t>
-  </si>
-  <si>
-    <t>cross val - xgboos default values</t>
+    <t>cross val - xgboost default values and optimized scorer</t>
+  </si>
+  <si>
+    <t>cross val - xgboost default values and recall scorer</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>cross val - optimized scorer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross val - default scorer </t>
+  </si>
+  <si>
+    <t>?? How to get?</t>
   </si>
 </sst>
 </file>
@@ -87,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,9 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,8 +485,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -477,15 +501,15 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>670</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -507,8 +531,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -523,16 +547,20 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>1560</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -546,16 +574,16 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>1489</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -576,9 +604,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -592,11 +620,82 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>492</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1126</v>
+      </c>
+      <c r="G19" s="3">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B60D1B-933C-A04B-BE7E-DEF9DBAAB117}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB524F-185F-AC4C-8C04-76435E5F450F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C572C47-0550-D94F-9629-355303FFCA2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
   <sheets>
     <sheet name="no sampling" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="142" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -454,18 +454,18 @@
       <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -508,7 +508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -531,7 +531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -554,11 +554,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -581,7 +581,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -604,7 +604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="51">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="51">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -662,22 +662,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B60D1B-933C-A04B-BE7E-DEF9DBAAB117}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>1</v>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C572C47-0550-D94F-9629-355303FFCA2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA82885-E8BF-3943-807B-39B74E2D6B4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
   <sheets>
     <sheet name="no sampling" sheetId="1" r:id="rId1"/>
@@ -73,14 +73,14 @@
     <t xml:space="preserve">cross val - default scorer </t>
   </si>
   <si>
-    <t>?? How to get?</t>
+    <t>scale_pos_weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="142" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -454,18 +454,19 @@
       <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -484,8 +485,11 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -508,7 +512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -531,7 +535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -554,11 +558,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -581,7 +585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -604,7 +608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51">
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -626,11 +630,11 @@
       <c r="G17" s="3">
         <v>17</v>
       </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="51">
+      <c r="H17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -662,22 +666,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B60D1B-933C-A04B-BE7E-DEF9DBAAB117}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>1</v>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA82885-E8BF-3943-807B-39B74E2D6B4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB2129-AAFE-4A44-87D5-5FD2C36CE484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>xgboost</t>
   </si>
@@ -64,9 +64,6 @@
     <t>cross val - xgboost default values and recall scorer</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>cross val - optimized scorer)</t>
   </si>
   <si>
@@ -74,13 +71,16 @@
   </si>
   <si>
     <t>scale_pos_weight</t>
+  </si>
+  <si>
+    <t>SMOTE + Outlier Removal + Reduced Features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +91,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -123,13 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,14 +454,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,14 +469,22 @@
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -486,10 +504,16 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -512,7 +536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -535,7 +559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -558,13 +582,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -584,10 +608,16 @@
       <c r="G13" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>2254</v>
+      </c>
+      <c r="J13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -608,7 +638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -630,7 +660,7 @@
       <c r="G17" s="3">
         <v>17</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>28</v>
       </c>
     </row>
@@ -647,8 +677,8 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" s="3">
         <v>1126</v>
@@ -658,6 +688,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB2129-AAFE-4A44-87D5-5FD2C36CE484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D2D549-FE57-554F-933E-BA1C1A22A51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>xgboost</t>
   </si>
@@ -74,13 +74,40 @@
   </si>
   <si>
     <t>SMOTE + Outlier Removal + Reduced Features</t>
+  </si>
+  <si>
+    <t>xgboost - NearMiss 3</t>
+  </si>
+  <si>
+    <t>Top 23</t>
+  </si>
+  <si>
+    <t>First 23</t>
+  </si>
+  <si>
+    <t>scorer</t>
+  </si>
+  <si>
+    <t>cross val - xgboost custom</t>
+  </si>
+  <si>
+    <t>roc_auc</t>
+  </si>
+  <si>
+    <t>28.xxxxx</t>
+  </si>
+  <si>
+    <t>28?</t>
+  </si>
+  <si>
+    <t>OneSideSelection?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +124,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="28"/>
       <color theme="1"/>
@@ -105,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +149,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,15 +177,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,14 +502,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,22 +517,23 @@
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I3" s="5" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -507,13 +556,16 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -536,7 +588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -559,7 +611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -582,11 +634,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -608,14 +660,14 @@
       <c r="G13" s="3">
         <v>61</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2254</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -638,33 +690,34 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>100</v>
       </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="7">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
         <v>492</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>17</v>
       </c>
       <c r="H17" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -687,9 +740,71 @@
         <v>37</v>
       </c>
     </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1489</v>
+      </c>
+      <c r="G21">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7">
+        <v>500</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>599</v>
+      </c>
+      <c r="G23" s="7">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -697,24 +812,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B60D1B-933C-A04B-BE7E-DEF9DBAAB117}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -722,8 +841,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -732,6 +851,38 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9029</v>
+      </c>
+      <c r="G4" s="6">
+        <v>320</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>4</v>
       </c>
     </row>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D2D549-FE57-554F-933E-BA1C1A22A51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52501C-E10F-2F48-A549-78BEAF632B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>xgboost</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>28.xxxxx</t>
-  </si>
-  <si>
-    <t>28?</t>
   </si>
   <si>
     <t>OneSideSelection?</t>
@@ -177,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -185,9 +182,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,14 +500,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,10 +526,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -694,22 +692,22 @@
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>100</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <v>492</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>17</v>
       </c>
       <c r="H17" s="4">
@@ -770,22 +768,22 @@
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>500</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="6">
         <v>6</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>599</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>21</v>
       </c>
       <c r="H23" t="s">
@@ -793,13 +791,51 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="39" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8">
+        <v>100</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1146</v>
+      </c>
+      <c r="G25" s="8">
+        <v>36</v>
+      </c>
+      <c r="H25" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G26" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -873,10 +909,10 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>9029</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>320</v>
       </c>
       <c r="H4" s="3">

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52501C-E10F-2F48-A549-78BEAF632B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC6F6A-45E0-E24C-AB3D-5BDFA4D433CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>xgboost</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>OneSideSelection?</t>
+  </si>
+  <si>
+    <t>04_07_03 - RandomForest?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'subsample': 0.55, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 3, 'learning_rate': 0.007, 'gamma': 0.1, 'colsample_bytree': 0.95} </t>
+  </si>
+  <si>
+    <t>cross val - 04_08_02</t>
   </si>
 </sst>
 </file>
@@ -500,14 +509,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
-  <dimension ref="A2:K28"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,6 +845,28 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>28.829148929038301</v>
       </c>
     </row>
   </sheetData>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengwangk/workspace/development/dl-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC6F6A-45E0-E24C-AB3D-5BDFA4D433CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829601E-BACD-D843-B2AA-518B6D8862C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0845A54-0FC0-F64C-9AB0-5222E19DCD39}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>xgboost</t>
   </si>
@@ -107,13 +107,41 @@
   </si>
   <si>
     <t>cross val - 04_08_02</t>
+  </si>
+  <si>
+    <t>cross val -</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{'base_score': 0.5, 'booster': 'gbtree', 'colsample_bylevel': 1, 'colsample_bynode': 1, 'colsample_bytree': 0.95, 'gamma': 0.1, 'learning_rate': 0.007, 'max_delta_step': 0, 'max_depth': 3, 'min_child_weight': 1, 'missing': None, 'n_estimators': 300, 'n_jobs': 4, 'nthread': None, 'objective': 'binary:logistic', 'random_state': 42, 'reg_alpha': 0, 'reg_lambda': 1, 'scale_pos_weight': 28.829148929038315, 'seed': None, 'silent': None, 'subsample': 0.55, 'verbosity': 1, 'tree_method': </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>'hist'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,8 +172,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -195,6 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,17 +550,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A70-B232-3F4F-8E9B-740521589028}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -529,18 +570,18 @@
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -572,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -595,7 +636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -641,11 +682,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -674,7 +715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -697,7 +738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="39">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -724,7 +765,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="34">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -747,7 +788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -773,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -799,7 +840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -807,7 +848,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="39">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -833,7 +874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="25" customHeight="1">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -842,17 +883,17 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="G28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -868,6 +909,21 @@
       <c r="H31">
         <v>28.829148929038301</v>
       </c>
+    </row>
+    <row r="33" spans="1:8" ht="17">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="9">
+        <v>131</v>
+      </c>
+      <c r="G33" s="9">
+        <v>6</v>
+      </c>
+      <c r="H33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -885,22 +941,22 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -927,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>16</v>
       </c>
